--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1937183333333333</v>
+        <v>0.5185026666666667</v>
       </c>
       <c r="H2">
-        <v>0.581155</v>
+        <v>1.555508</v>
       </c>
       <c r="I2">
-        <v>0.09282752788914909</v>
+        <v>0.2217209591580833</v>
       </c>
       <c r="J2">
-        <v>0.09282752788914909</v>
+        <v>0.2217209591580833</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N2">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O2">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P2">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q2">
-        <v>0.02154625705222222</v>
+        <v>0.07922997281422221</v>
       </c>
       <c r="R2">
-        <v>0.19391631347</v>
+        <v>0.713069755328</v>
       </c>
       <c r="S2">
-        <v>0.0007433034472795779</v>
+        <v>0.002446542710158645</v>
       </c>
       <c r="T2">
-        <v>0.0007433034472795779</v>
+        <v>0.002446542710158645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1937183333333333</v>
+        <v>0.5185026666666667</v>
       </c>
       <c r="H3">
-        <v>0.581155</v>
+        <v>1.555508</v>
       </c>
       <c r="I3">
-        <v>0.09282752788914909</v>
+        <v>0.2217209591580833</v>
       </c>
       <c r="J3">
-        <v>0.09282752788914909</v>
+        <v>0.2217209591580833</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>35.475684</v>
       </c>
       <c r="O3">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P3">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q3">
-        <v>2.290763459446667</v>
+        <v>6.131412251941334</v>
       </c>
       <c r="R3">
-        <v>20.61687113502</v>
+        <v>55.182710267472</v>
       </c>
       <c r="S3">
-        <v>0.07902682921594421</v>
+        <v>0.1893319083061929</v>
       </c>
       <c r="T3">
-        <v>0.0790268292159442</v>
+        <v>0.1893319083061928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1937183333333333</v>
+        <v>0.5185026666666667</v>
       </c>
       <c r="H4">
-        <v>0.581155</v>
+        <v>1.555508</v>
       </c>
       <c r="I4">
-        <v>0.09282752788914909</v>
+        <v>0.2217209591580833</v>
       </c>
       <c r="J4">
-        <v>0.09282752788914909</v>
+        <v>0.2217209591580833</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N4">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O4">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P4">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q4">
-        <v>0.37114766689</v>
+        <v>0.8881682786955556</v>
       </c>
       <c r="R4">
-        <v>3.34032900201</v>
+        <v>7.993514508260001</v>
       </c>
       <c r="S4">
-        <v>0.01280386377923847</v>
+        <v>0.02742575253347441</v>
       </c>
       <c r="T4">
-        <v>0.01280386377923847</v>
+        <v>0.0274257525334744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1937183333333333</v>
+        <v>0.5185026666666667</v>
       </c>
       <c r="H5">
-        <v>0.581155</v>
+        <v>1.555508</v>
       </c>
       <c r="I5">
-        <v>0.09282752788914909</v>
+        <v>0.2217209591580833</v>
       </c>
       <c r="J5">
-        <v>0.09282752788914909</v>
+        <v>0.2217209591580833</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N5">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O5">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P5">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q5">
-        <v>0.007349156984444443</v>
+        <v>0.08150377984177778</v>
       </c>
       <c r="R5">
-        <v>0.06614241285999999</v>
+        <v>0.7335340185760001</v>
       </c>
       <c r="S5">
-        <v>0.000253531446686836</v>
+        <v>0.002516755608257419</v>
       </c>
       <c r="T5">
-        <v>0.0002535314466868359</v>
+        <v>0.002516755608257418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>3.005587</v>
       </c>
       <c r="I6">
-        <v>0.4800805483317944</v>
+        <v>0.4284141466794554</v>
       </c>
       <c r="J6">
-        <v>0.4800805483317944</v>
+        <v>0.4284141466794553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N6">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O6">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P6">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q6">
-        <v>0.1114318040708889</v>
+        <v>0.1530899077991111</v>
       </c>
       <c r="R6">
-        <v>1.002886236638</v>
+        <v>1.377809170192</v>
       </c>
       <c r="S6">
-        <v>0.003844177849624772</v>
+        <v>0.004727263996454916</v>
       </c>
       <c r="T6">
-        <v>0.003844177849624772</v>
+        <v>0.004727263996454915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.005587</v>
       </c>
       <c r="I7">
-        <v>0.4800805483317944</v>
+        <v>0.4284141466794554</v>
       </c>
       <c r="J7">
-        <v>0.4800805483317944</v>
+        <v>0.4284141466794553</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>35.475684</v>
       </c>
       <c r="O7">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P7">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q7">
         <v>11.84725051627867</v>
@@ -883,10 +883,10 @@
         <v>106.625254646508</v>
       </c>
       <c r="S7">
-        <v>0.4087068175317465</v>
+        <v>0.3658313054579503</v>
       </c>
       <c r="T7">
-        <v>0.4087068175317464</v>
+        <v>0.3658313054579502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.005587</v>
       </c>
       <c r="I8">
-        <v>0.4800805483317944</v>
+        <v>0.4284141466794554</v>
       </c>
       <c r="J8">
-        <v>0.4800805483317944</v>
+        <v>0.4284141466794553</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N8">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O8">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P8">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q8">
-        <v>1.919482070506</v>
+        <v>1.716138414112778</v>
       </c>
       <c r="R8">
-        <v>17.275338634554</v>
+        <v>15.445245727015</v>
       </c>
       <c r="S8">
-        <v>0.06621835228923437</v>
+        <v>0.05299264631221939</v>
       </c>
       <c r="T8">
-        <v>0.06621835228923437</v>
+        <v>0.05299264631221937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>3.005587</v>
       </c>
       <c r="I9">
-        <v>0.4800805483317944</v>
+        <v>0.4284141466794554</v>
       </c>
       <c r="J9">
-        <v>0.4800805483317944</v>
+        <v>0.4284141466794553</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N9">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O9">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P9">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q9">
-        <v>0.03800798529377777</v>
+        <v>0.1574834080848889</v>
       </c>
       <c r="R9">
-        <v>0.3420718676439999</v>
+        <v>1.417350672764</v>
       </c>
       <c r="S9">
-        <v>0.001311200661188749</v>
+        <v>0.004862930912830786</v>
       </c>
       <c r="T9">
-        <v>0.001311200661188749</v>
+        <v>0.004862930912830785</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.671121</v>
+        <v>0.6034673333333332</v>
       </c>
       <c r="H10">
-        <v>2.013363</v>
+        <v>1.810402</v>
       </c>
       <c r="I10">
-        <v>0.3215932238963459</v>
+        <v>0.2580533612824314</v>
       </c>
       <c r="J10">
-        <v>0.3215932238963459</v>
+        <v>0.2580533612824314</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N10">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O10">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P10">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q10">
-        <v>0.07464520951799998</v>
+        <v>0.09221302702577776</v>
       </c>
       <c r="R10">
-        <v>0.671806885662</v>
+        <v>0.8299172432319999</v>
       </c>
       <c r="S10">
-        <v>0.002575112764280016</v>
+        <v>0.002847446503365223</v>
       </c>
       <c r="T10">
-        <v>0.002575112764280016</v>
+        <v>0.002847446503365223</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.671121</v>
+        <v>0.6034673333333332</v>
       </c>
       <c r="H11">
-        <v>2.013363</v>
+        <v>1.810402</v>
       </c>
       <c r="I11">
-        <v>0.3215932238963459</v>
+        <v>0.2580533612824314</v>
       </c>
       <c r="J11">
-        <v>0.3215932238963459</v>
+        <v>0.2580533612824314</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>35.475684</v>
       </c>
       <c r="O11">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P11">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q11">
-        <v>7.936158840588</v>
+        <v>7.136138807218666</v>
       </c>
       <c r="R11">
-        <v>71.42542956529201</v>
+        <v>64.225249264968</v>
       </c>
       <c r="S11">
-        <v>0.2737818550140687</v>
+        <v>0.2203568644207218</v>
       </c>
       <c r="T11">
-        <v>0.2737818550140687</v>
+        <v>0.2203568644207217</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.671121</v>
+        <v>0.6034673333333332</v>
       </c>
       <c r="H12">
-        <v>2.013363</v>
+        <v>1.810402</v>
       </c>
       <c r="I12">
-        <v>0.3215932238963459</v>
+        <v>0.2580533612824314</v>
       </c>
       <c r="J12">
-        <v>0.3215932238963459</v>
+        <v>0.2580533612824314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N12">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O12">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P12">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q12">
-        <v>1.285810119594</v>
+        <v>1.033708362854444</v>
       </c>
       <c r="R12">
-        <v>11.572291076346</v>
+        <v>9.303375265689999</v>
       </c>
       <c r="S12">
-        <v>0.04435791757820013</v>
+        <v>0.03191988548956812</v>
       </c>
       <c r="T12">
-        <v>0.04435791757820013</v>
+        <v>0.03191988548956812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.671121</v>
+        <v>0.6034673333333332</v>
       </c>
       <c r="H13">
-        <v>2.013363</v>
+        <v>1.810402</v>
       </c>
       <c r="I13">
-        <v>0.3215932238963459</v>
+        <v>0.2580533612824314</v>
       </c>
       <c r="J13">
-        <v>0.3215932238963459</v>
+        <v>0.2580533612824314</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N13">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O13">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P13">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q13">
-        <v>0.025460541084</v>
+        <v>0.09485943243822222</v>
       </c>
       <c r="R13">
-        <v>0.229144869756</v>
+        <v>0.8537348919439999</v>
       </c>
       <c r="S13">
-        <v>0.000878338539797039</v>
+        <v>0.002929164868776276</v>
       </c>
       <c r="T13">
-        <v>0.0008783385397970389</v>
+        <v>0.002929164868776275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2201613333333333</v>
+        <v>0.2147046666666667</v>
       </c>
       <c r="H14">
-        <v>0.6604840000000001</v>
+        <v>0.644114</v>
       </c>
       <c r="I14">
-        <v>0.1054986998827107</v>
+        <v>0.09181153288002999</v>
       </c>
       <c r="J14">
-        <v>0.1054986998827107</v>
+        <v>0.09181153288002998</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N14">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O14">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P14">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q14">
-        <v>0.02448737091288889</v>
+        <v>0.03280801815822221</v>
       </c>
       <c r="R14">
-        <v>0.220386338216</v>
+        <v>0.295272163424</v>
       </c>
       <c r="S14">
-        <v>0.0008447660849050679</v>
+        <v>0.001013078949906478</v>
       </c>
       <c r="T14">
-        <v>0.0008447660849050679</v>
+        <v>0.001013078949906478</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2201613333333333</v>
+        <v>0.2147046666666667</v>
       </c>
       <c r="H15">
-        <v>0.6604840000000001</v>
+        <v>0.644114</v>
       </c>
       <c r="I15">
-        <v>0.1054986998827107</v>
+        <v>0.09181153288002999</v>
       </c>
       <c r="J15">
-        <v>0.1054986998827107</v>
+        <v>0.09181153288002998</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>35.475684</v>
       </c>
       <c r="O15">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P15">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q15">
-        <v>2.603457963450667</v>
+        <v>2.538931635997333</v>
       </c>
       <c r="R15">
-        <v>23.431121671056</v>
+        <v>22.850384723976</v>
       </c>
       <c r="S15">
-        <v>0.08981417396024073</v>
+        <v>0.07839968215318412</v>
       </c>
       <c r="T15">
-        <v>0.08981417396024072</v>
+        <v>0.07839968215318409</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2201613333333333</v>
+        <v>0.2147046666666667</v>
       </c>
       <c r="H16">
-        <v>0.6604840000000001</v>
+        <v>0.644114</v>
       </c>
       <c r="I16">
-        <v>0.1054986998827107</v>
+        <v>0.09181153288002999</v>
       </c>
       <c r="J16">
-        <v>0.1054986998827107</v>
+        <v>0.09181153288002998</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N16">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O16">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P16">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q16">
-        <v>0.4218101807920001</v>
+        <v>0.3677780009255555</v>
       </c>
       <c r="R16">
-        <v>3.796291627128001</v>
+        <v>3.31000200833</v>
       </c>
       <c r="S16">
-        <v>0.01455162076273376</v>
+        <v>0.0113566186527786</v>
       </c>
       <c r="T16">
-        <v>0.01455162076273376</v>
+        <v>0.0113566186527786</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2201613333333333</v>
+        <v>0.2147046666666667</v>
       </c>
       <c r="H17">
-        <v>0.6604840000000001</v>
+        <v>0.644114</v>
       </c>
       <c r="I17">
-        <v>0.1054986998827107</v>
+        <v>0.09181153288002999</v>
       </c>
       <c r="J17">
-        <v>0.1054986998827107</v>
+        <v>0.09181153288002998</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N17">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O17">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P17">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q17">
-        <v>0.008352333889777777</v>
+        <v>0.03374956968977778</v>
       </c>
       <c r="R17">
-        <v>0.075171005008</v>
+        <v>0.303746127208</v>
       </c>
       <c r="S17">
-        <v>0.0002881390748311693</v>
+        <v>0.001042153124160801</v>
       </c>
       <c r="T17">
-        <v>0.0002881390748311693</v>
+        <v>0.001042153124160801</v>
       </c>
     </row>
   </sheetData>
